--- a/projects/Kofskey1972_one_stage/Full_Dataset_Kofskey1972_1stage.xlsx
+++ b/projects/Kofskey1972_one_stage/Full_Dataset_Kofskey1972_1stage.xlsx
@@ -461,7 +461,7 @@
         <v>110</v>
       </c>
       <c r="C2" t="n">
-        <v>1.93130817956485</v>
+        <v>2.56469316904405</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>1.94849595800865</v>
+        <v>2.587517790423632</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.9416276507849</v>
+        <v>2.578396977491738</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>1.9769446109482</v>
+        <v>2.625296362810256</v>
       </c>
     </row>
     <row r="6">
@@ -505,7 +505,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>1.9947671197369</v>
+        <v>2.648963878450305</v>
       </c>
     </row>
     <row r="7">
@@ -516,7 +516,7 @@
         <v>110</v>
       </c>
       <c r="C7" t="n">
-        <v>1.95290310561018</v>
+        <v>2.593370290541536</v>
       </c>
     </row>
     <row r="8">
@@ -527,7 +527,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.96759764770683</v>
+        <v>2.612884002613113</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +538,7 @@
         <v>90</v>
       </c>
       <c r="C9" t="n">
-        <v>1.97447275908435</v>
+        <v>2.622013851164945</v>
       </c>
     </row>
     <row r="10">
@@ -549,7 +549,7 @@
         <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>2.00448685340288</v>
+        <v>2.661871261540083</v>
       </c>
     </row>
     <row r="11">
@@ -560,7 +560,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>2.02077696955951</v>
+        <v>2.683503826488499</v>
       </c>
     </row>
     <row r="12">
@@ -571,7 +571,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>2.01421825133248</v>
+        <v>2.674794134264062</v>
       </c>
     </row>
     <row r="13">
@@ -582,7 +582,7 @@
         <v>110</v>
       </c>
       <c r="C13" t="n">
-        <v>1.98703419897289</v>
+        <v>2.638694896384126</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +593,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>1.99297859931634</v>
+        <v>2.646588801207925</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +604,7 @@
         <v>90</v>
       </c>
       <c r="C15" t="n">
-        <v>2.00361154762097</v>
+        <v>2.660708893574452</v>
       </c>
     </row>
     <row r="16">
@@ -615,7 +615,7 @@
         <v>70</v>
       </c>
       <c r="C16" t="n">
-        <v>2.01955902603398</v>
+        <v>2.681886450518543</v>
       </c>
     </row>
     <row r="17">
@@ -626,7 +626,7 @@
         <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>2.03365091451066</v>
+        <v>2.700599864823666</v>
       </c>
     </row>
     <row r="18">
@@ -637,7 +637,7 @@
         <v>110</v>
       </c>
       <c r="C18" t="n">
-        <v>1.9995936948175</v>
+        <v>2.655373359997617</v>
       </c>
     </row>
     <row r="19">
@@ -648,7 +648,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>2.00335153174461</v>
+        <v>2.66036360381231</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>90</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0152286681679</v>
+        <v>2.676135923825722</v>
       </c>
     </row>
     <row r="21">
@@ -670,7 +670,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>2.04024656957247</v>
+        <v>2.709358607556381</v>
       </c>
     </row>
     <row r="22">
@@ -681,7 +681,7 @@
         <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0334151991835</v>
+        <v>2.700286845132764</v>
       </c>
     </row>
     <row r="23">
@@ -692,7 +692,7 @@
         <v>110</v>
       </c>
       <c r="C23" t="n">
-        <v>2.01154081682246</v>
+        <v>2.671238617816159</v>
       </c>
     </row>
     <row r="24">
@@ -703,7 +703,7 @@
         <v>110</v>
       </c>
       <c r="C24" t="n">
-        <v>2.00341762923842</v>
+        <v>2.660451378406059</v>
       </c>
     </row>
     <row r="25">
@@ -714,7 +714,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.00874285158844</v>
+        <v>2.667523041814959</v>
       </c>
     </row>
     <row r="26">
@@ -725,7 +725,7 @@
         <v>90</v>
       </c>
       <c r="C26" t="n">
-        <v>2.02343739368509</v>
+        <v>2.687036753886535</v>
       </c>
     </row>
     <row r="27">
@@ -736,7 +736,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>2.04032919143972</v>
+        <v>2.709468325798551</v>
       </c>
     </row>
     <row r="28">
@@ -747,7 +747,7 @@
         <v>70</v>
       </c>
       <c r="C28" t="n">
-        <v>2.03002138448328</v>
+        <v>2.695780006985049</v>
       </c>
     </row>
     <row r="29">
@@ -758,7 +758,7 @@
         <v>110</v>
       </c>
       <c r="C29" t="n">
-        <v>2.00411068090138</v>
+        <v>2.661371720837472</v>
       </c>
     </row>
     <row r="30">
@@ -769,7 +769,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="n">
-        <v>2.03100069661574</v>
+        <v>2.697080490855546</v>
       </c>
     </row>
     <row r="31">
@@ -780,7 +780,7 @@
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>2.01694185688596</v>
+        <v>2.67841096384729</v>
       </c>
     </row>
     <row r="32">
@@ -791,7 +791,7 @@
         <v>90</v>
       </c>
       <c r="C32" t="n">
-        <v>2.02570171885884</v>
+        <v>2.690043679123562</v>
       </c>
     </row>
     <row r="33">
@@ -802,7 +802,7 @@
         <v>70</v>
       </c>
       <c r="C33" t="n">
-        <v>2.02885495812205</v>
+        <v>2.694231043566113</v>
       </c>
     </row>
     <row r="34">
@@ -813,7 +813,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>2.04356505257018</v>
+        <v>2.71376540848327</v>
       </c>
     </row>
     <row r="35">
@@ -824,7 +824,7 @@
         <v>50</v>
       </c>
       <c r="C35" t="n">
-        <v>2.03765564501757</v>
+        <v>2.705917972562044</v>
       </c>
     </row>
     <row r="36">
@@ -835,7 +835,7 @@
         <v>110</v>
       </c>
       <c r="C36" t="n">
-        <v>2.00205534045069</v>
+        <v>2.658642318213012</v>
       </c>
     </row>
     <row r="37">
@@ -846,7 +846,7 @@
         <v>100</v>
       </c>
       <c r="C37" t="n">
-        <v>2.01301148605958</v>
+        <v>2.673191602526872</v>
       </c>
     </row>
     <row r="38">
@@ -857,7 +857,7 @@
         <v>90</v>
       </c>
       <c r="C38" t="n">
-        <v>2.01801545514928</v>
+        <v>2.679836655594142</v>
       </c>
     </row>
     <row r="39">
@@ -868,7 +868,7 @@
         <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>2.04367780711844</v>
+        <v>2.713915141613778</v>
       </c>
     </row>
     <row r="40">
@@ -879,7 +879,7 @@
         <v>70</v>
       </c>
       <c r="C40" t="n">
-        <v>2.03526058288917</v>
+        <v>2.702737434341816</v>
       </c>
     </row>
     <row r="41">
@@ -890,7 +890,7 @@
         <v>110</v>
       </c>
       <c r="C41" t="n">
-        <v>2.00595800865099</v>
+        <v>2.663824891652229</v>
       </c>
     </row>
     <row r="42">
@@ -901,7 +901,7 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>2.03564987768723</v>
+        <v>2.703254400882886</v>
       </c>
     </row>
     <row r="43">
@@ -912,7 +912,7 @@
         <v>100</v>
       </c>
       <c r="C43" t="n">
-        <v>2.0200460090398</v>
+        <v>2.682533142745958</v>
       </c>
     </row>
     <row r="44">
@@ -923,7 +923,7 @@
         <v>30</v>
       </c>
       <c r="C44" t="n">
-        <v>2.04818312893871</v>
+        <v>2.719898012819447</v>
       </c>
     </row>
     <row r="45">
@@ -934,7 +934,7 @@
         <v>90</v>
       </c>
       <c r="C45" t="n">
-        <v>2.01976072059228</v>
+        <v>2.682154292109739</v>
       </c>
     </row>
     <row r="46">
@@ -945,7 +945,7 @@
         <v>70</v>
       </c>
       <c r="C46" t="n">
-        <v>2.02981239976023</v>
+        <v>2.695502484372495</v>
       </c>
     </row>
     <row r="47">
@@ -956,7 +956,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="n">
-        <v>2.04234662303368</v>
+        <v>2.712147387111908</v>
       </c>
     </row>
     <row r="48">
@@ -967,7 +967,7 @@
         <v>110</v>
       </c>
       <c r="C48" t="n">
-        <v>2.01112819349717</v>
+        <v>2.670690672006704</v>
       </c>
     </row>
     <row r="49">
@@ -978,7 +978,7 @@
         <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>2.00584185202585</v>
+        <v>2.663670640711759</v>
       </c>
     </row>
     <row r="50">
@@ -989,7 +989,7 @@
         <v>90</v>
       </c>
       <c r="C50" t="n">
-        <v>2.02430395126929</v>
+        <v>2.688187504626524</v>
       </c>
     </row>
     <row r="51">
@@ -1000,7 +1000,7 @@
         <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>2.01587700682035</v>
+        <v>2.676996889326081</v>
       </c>
     </row>
     <row r="52">
@@ -1011,7 +1011,7 @@
         <v>70</v>
       </c>
       <c r="C52" t="n">
-        <v>2.03372576020218</v>
+        <v>2.700699256643059</v>
       </c>
     </row>
     <row r="53">
@@ -1022,7 +1022,7 @@
         <v>50</v>
       </c>
       <c r="C53" t="n">
-        <v>2.04156074327279</v>
+        <v>2.711103773008384</v>
       </c>
     </row>
     <row r="54">
@@ -1033,7 +1033,7 @@
         <v>30</v>
       </c>
       <c r="C54" t="n">
-        <v>2.0406397524584</v>
+        <v>2.709880737308846</v>
       </c>
     </row>
   </sheetData>
@@ -1080,7 +1080,7 @@
         <v>110</v>
       </c>
       <c r="C2" t="n">
-        <v>40.9413071653397</v>
+        <v>55.77394263392773</v>
       </c>
     </row>
     <row r="3">
@@ -1091,7 +1091,7 @@
         <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>50.0090723940011</v>
+        <v>68.1268705861022</v>
       </c>
     </row>
     <row r="4">
@@ -1102,7 +1102,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>46.1512682836511</v>
+        <v>62.87142174870535</v>
       </c>
     </row>
     <row r="5">
@@ -1113,7 +1113,7 @@
         <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>61.1031290501759</v>
+        <v>83.24019554713006</v>
       </c>
     </row>
     <row r="6">
@@ -1124,7 +1124,7 @@
         <v>70</v>
       </c>
       <c r="C6" t="n">
-        <v>61.489353823366</v>
+        <v>83.76634578109091</v>
       </c>
     </row>
     <row r="7">
@@ -1135,7 +1135,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>72.48861321977409</v>
+        <v>98.75052936158761</v>
       </c>
     </row>
     <row r="8">
@@ -1146,7 +1146,7 @@
         <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>45.1905202740233</v>
+        <v>61.56260412453322</v>
       </c>
     </row>
     <row r="9">
@@ -1157,7 +1157,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>50.4002962414367</v>
+        <v>68.65983101005197</v>
       </c>
     </row>
     <row r="10">
@@ -1168,7 +1168,7 @@
         <v>90</v>
       </c>
       <c r="C10" t="n">
-        <v>55.3203110535086</v>
+        <v>75.36231910547075</v>
       </c>
     </row>
     <row r="11">
@@ -1179,7 +1179,7 @@
         <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>55.6102573597482</v>
+        <v>75.75731012482974</v>
       </c>
     </row>
     <row r="12">
@@ -1190,7 +1190,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>84.8400296241436</v>
+        <v>115.5767432194651</v>
       </c>
     </row>
     <row r="13">
@@ -1201,7 +1201,7 @@
         <v>70</v>
       </c>
       <c r="C13" t="n">
-        <v>66.897981855212</v>
+        <v>91.13446689061456</v>
       </c>
     </row>
     <row r="14">
@@ -1212,7 +1212,7 @@
         <v>50</v>
       </c>
       <c r="C14" t="n">
-        <v>77.3192001481207</v>
+        <v>105.3311907249818</v>
       </c>
     </row>
     <row r="15">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="C15" t="n">
-        <v>51.3743751157193</v>
+        <v>69.98680914086144</v>
       </c>
     </row>
     <row r="16">
@@ -1234,7 +1234,7 @@
         <v>110</v>
       </c>
       <c r="C16" t="n">
-        <v>51.9531568228106</v>
+        <v>70.77527780402629</v>
       </c>
     </row>
     <row r="17">
@@ -1245,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>89.47731901499721</v>
+        <v>121.8940772366201</v>
       </c>
     </row>
     <row r="18">
@@ -1256,7 +1256,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>56.8739122384743</v>
+        <v>77.47877481648028</v>
       </c>
     </row>
     <row r="19">
@@ -1267,7 +1267,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>58.0316608035549</v>
+        <v>79.05596437206887</v>
       </c>
     </row>
     <row r="20">
@@ -1278,7 +1278,7 @@
         <v>90</v>
       </c>
       <c r="C20" t="n">
-        <v>62.7591186817256</v>
+        <v>85.49613403828364</v>
       </c>
     </row>
     <row r="21">
@@ -1289,7 +1289,7 @@
         <v>70</v>
       </c>
       <c r="C21" t="n">
-        <v>73.9513053138307</v>
+        <v>100.7431405065018</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>84.6622847620811</v>
+        <v>115.3346031309693</v>
       </c>
     </row>
     <row r="23">
@@ -1311,7 +1311,7 @@
         <v>110</v>
       </c>
       <c r="C23" t="n">
-        <v>56.1103499351971</v>
+        <v>76.43858135298322</v>
       </c>
     </row>
     <row r="24">
@@ -1322,7 +1322,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>62.1890390668394</v>
+        <v>84.71952015028467</v>
       </c>
     </row>
     <row r="25">
@@ -1333,7 +1333,7 @@
         <v>90</v>
       </c>
       <c r="C25" t="n">
-        <v>67.3982595815589</v>
+        <v>91.81599034802694</v>
       </c>
     </row>
     <row r="26">
@@ -1344,7 +1344,7 @@
         <v>70</v>
       </c>
       <c r="C26" t="n">
-        <v>78.0122199592668</v>
+        <v>106.275284840857</v>
       </c>
     </row>
     <row r="27">
@@ -1355,7 +1355,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>96.05091649694501</v>
+        <v>130.8492248428274</v>
       </c>
     </row>
     <row r="28">
@@ -1366,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>96.91927420847991</v>
+        <v>132.0321800668334</v>
       </c>
     </row>
     <row r="29">
@@ -1377,7 +1377,7 @@
         <v>50</v>
       </c>
       <c r="C29" t="n">
-        <v>89.5939640807258</v>
+        <v>122.0529816696956</v>
       </c>
     </row>
     <row r="30">
@@ -1388,7 +1388,7 @@
         <v>110</v>
       </c>
       <c r="C30" t="n">
-        <v>60.8485465654508</v>
+        <v>82.89338031621136</v>
       </c>
     </row>
     <row r="31">
@@ -1399,7 +1399,7 @@
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>65.8659507498611</v>
+        <v>89.72854100178512</v>
       </c>
     </row>
     <row r="32">
@@ -1410,7 +1410,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="n">
-        <v>66.63765969264951</v>
+        <v>90.77983255267159</v>
       </c>
     </row>
     <row r="33">
@@ -1421,7 +1421,7 @@
         <v>90</v>
       </c>
       <c r="C33" t="n">
-        <v>71.36567302351411</v>
+        <v>97.22075890666285</v>
       </c>
     </row>
     <row r="34">
@@ -1432,7 +1432,7 @@
         <v>90</v>
       </c>
       <c r="C34" t="n">
-        <v>72.1373819663025</v>
+        <v>98.27205045754931</v>
       </c>
     </row>
     <row r="35">
@@ -1443,7 +1443,7 @@
         <v>70</v>
       </c>
       <c r="C35" t="n">
-        <v>82.75171264580629</v>
+        <v>112.731849408897</v>
       </c>
     </row>
     <row r="36">
@@ -1454,7 +1454,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>100.693945565636</v>
+        <v>137.1743779670066</v>
       </c>
     </row>
     <row r="37">
@@ -1465,7 +1465,7 @@
         <v>110</v>
       </c>
       <c r="C37" t="n">
-        <v>64.81410849842619</v>
+        <v>88.29562658225879</v>
       </c>
     </row>
     <row r="38">
@@ -1476,7 +1476,7 @@
         <v>50</v>
       </c>
       <c r="C38" t="n">
-        <v>92.8855767450472</v>
+        <v>126.5371134335293</v>
       </c>
     </row>
     <row r="39">
@@ -1487,7 +1487,7 @@
         <v>50</v>
       </c>
       <c r="C39" t="n">
-        <v>93.27272727272729</v>
+        <v>127.0645248137845</v>
       </c>
     </row>
     <row r="40">
@@ -1498,7 +1498,7 @@
         <v>100</v>
       </c>
       <c r="C40" t="n">
-        <v>69.54360303647471</v>
+        <v>94.73857077032093</v>
       </c>
     </row>
     <row r="41">
@@ -1509,7 +1509,7 @@
         <v>100</v>
       </c>
       <c r="C41" t="n">
-        <v>69.9297352342159</v>
+        <v>95.26459488965246</v>
       </c>
     </row>
     <row r="42">
@@ -1520,7 +1520,7 @@
         <v>90</v>
       </c>
       <c r="C42" t="n">
-        <v>75.5261988520644</v>
+        <v>102.8886025822792</v>
       </c>
     </row>
     <row r="43">
@@ -1531,7 +1531,7 @@
         <v>70</v>
       </c>
       <c r="C43" t="n">
-        <v>86.04462136641359</v>
+        <v>117.2177467775427</v>
       </c>
     </row>
     <row r="44">
@@ -1542,7 +1542,7 @@
         <v>30</v>
       </c>
       <c r="C44" t="n">
-        <v>104.859100166635</v>
+        <v>142.8485273740931</v>
       </c>
     </row>
     <row r="45">
@@ -1553,7 +1553,7 @@
         <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>105.823921496019</v>
+        <v>144.1628940419607</v>
       </c>
     </row>
     <row r="46">
@@ -1564,7 +1564,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>95.8894649139048</v>
+        <v>130.6292809291102</v>
       </c>
     </row>
     <row r="47">
@@ -1575,7 +1575,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="n">
-        <v>96.4700981299759</v>
+        <v>131.4202718848635</v>
       </c>
     </row>
     <row r="48">
@@ -1586,7 +1586,7 @@
         <v>110</v>
       </c>
       <c r="C48" t="n">
-        <v>68.5963710423995</v>
+        <v>93.44816588204473</v>
       </c>
     </row>
     <row r="49">
@@ -1597,7 +1597,7 @@
         <v>110</v>
       </c>
       <c r="C49" t="n">
-        <v>69.2718015182373</v>
+        <v>94.36829821832919</v>
       </c>
     </row>
     <row r="50">
@@ -1608,7 +1608,7 @@
         <v>100</v>
       </c>
       <c r="C50" t="n">
-        <v>74.38715052768001</v>
+        <v>101.3368881818346</v>
       </c>
     </row>
     <row r="51">
@@ -1619,7 +1619,7 @@
         <v>90</v>
       </c>
       <c r="C51" t="n">
-        <v>79.69376041473799</v>
+        <v>108.5660309697319</v>
       </c>
     </row>
     <row r="52">
@@ -1630,7 +1630,7 @@
         <v>30</v>
       </c>
       <c r="C52" t="n">
-        <v>108.252360673949</v>
+        <v>147.4711330010362</v>
       </c>
     </row>
     <row r="53">
@@ -1641,7 +1641,7 @@
         <v>70</v>
       </c>
       <c r="C53" t="n">
-        <v>90.1203480836882</v>
+        <v>122.7700694526058</v>
       </c>
     </row>
     <row r="54">
@@ -1652,7 +1652,7 @@
         <v>50</v>
       </c>
       <c r="C54" t="n">
-        <v>100.645621181262</v>
+        <v>137.1085461304458</v>
       </c>
     </row>
     <row r="55">
@@ -1663,7 +1663,7 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>72.285687835586</v>
+        <v>98.47408609388815</v>
       </c>
     </row>
     <row r="56">
@@ -1674,7 +1674,7 @@
         <v>50</v>
       </c>
       <c r="C56" t="n">
-        <v>101.129235326791</v>
+        <v>137.7673689545623</v>
       </c>
     </row>
     <row r="57">
@@ -1685,7 +1685,7 @@
         <v>100</v>
       </c>
       <c r="C57" t="n">
-        <v>77.3045732271801</v>
+        <v>105.3112646135326</v>
       </c>
     </row>
     <row r="58">
@@ -1696,7 +1696,7 @@
         <v>30</v>
       </c>
       <c r="C58" t="n">
-        <v>111.260877615256</v>
+        <v>151.5696062280882</v>
       </c>
     </row>
     <row r="59">
@@ -1707,7 +1707,7 @@
         <v>100</v>
       </c>
       <c r="C59" t="n">
-        <v>77.8848361414553</v>
+        <v>106.1017511107683</v>
       </c>
     </row>
     <row r="60">
@@ -1718,7 +1718,7 @@
         <v>30</v>
       </c>
       <c r="C60" t="n">
-        <v>110.586928346602</v>
+        <v>150.6514917258744</v>
       </c>
     </row>
     <row r="61">
@@ -1729,7 +1729,7 @@
         <v>90</v>
       </c>
       <c r="C61" t="n">
-        <v>82.42232919829659</v>
+        <v>112.2831335574031</v>
       </c>
     </row>
     <row r="62">
@@ -1740,7 +1740,7 @@
         <v>90</v>
       </c>
       <c r="C62" t="n">
-        <v>83.19422329198289</v>
+        <v>113.3346773375483</v>
       </c>
     </row>
     <row r="63">
@@ -1751,7 +1751,7 @@
         <v>70</v>
       </c>
       <c r="C63" t="n">
-        <v>92.9450101832994</v>
+        <v>126.6180790256201</v>
       </c>
     </row>
     <row r="64">
@@ -1762,7 +1762,7 @@
         <v>50</v>
       </c>
       <c r="C64" t="n">
-        <v>102.209775967413</v>
+        <v>139.2393789092102</v>
       </c>
     </row>
     <row r="65">
@@ -1773,7 +1773,7 @@
         <v>30</v>
       </c>
       <c r="C65" t="n">
-        <v>112.823921496019</v>
+        <v>153.6989256312993</v>
       </c>
     </row>
     <row r="66">
@@ -1784,7 +1784,7 @@
         <v>30</v>
       </c>
       <c r="C66" t="n">
-        <v>113.402888354008</v>
+        <v>154.4876465237226</v>
       </c>
     </row>
     <row r="67">
@@ -1795,7 +1795,7 @@
         <v>110</v>
       </c>
       <c r="C67" t="n">
-        <v>74.2412516200703</v>
+        <v>101.1381315258608</v>
       </c>
     </row>
     <row r="68">
@@ -1806,7 +1806,7 @@
         <v>100</v>
       </c>
       <c r="C68" t="n">
-        <v>79.64691723754861</v>
+        <v>108.5022169672429</v>
       </c>
     </row>
     <row r="69">
@@ -1817,7 +1817,7 @@
         <v>90</v>
       </c>
       <c r="C69" t="n">
-        <v>84.4730605443436</v>
+        <v>115.0768248284246</v>
       </c>
     </row>
     <row r="70">
@@ -1828,7 +1828,7 @@
         <v>90</v>
       </c>
       <c r="C70" t="n">
-        <v>84.4754675060174</v>
+        <v>115.0801038087897</v>
       </c>
     </row>
     <row r="71">
@@ -1839,7 +1839,7 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>94.5130531383077</v>
+        <v>128.75420861882</v>
       </c>
     </row>
     <row r="72">
@@ -1850,7 +1850,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="n">
-        <v>94.5136085910016</v>
+        <v>128.7549653065965</v>
       </c>
     </row>
     <row r="73">
@@ -1861,7 +1861,7 @@
         <v>50</v>
       </c>
       <c r="C73" t="n">
-        <v>103.680429550083</v>
+        <v>141.2428359122552</v>
       </c>
     </row>
     <row r="74">
@@ -1872,7 +1872,7 @@
         <v>30</v>
       </c>
       <c r="C74" t="n">
-        <v>114.873912238474</v>
+        <v>156.4916079852854</v>
       </c>
     </row>
   </sheetData>
@@ -1941,7 +1941,7 @@
         <v>110</v>
       </c>
       <c r="C4" t="n">
-        <v>85.31187486156722</v>
+        <v>85.31187486156723</v>
       </c>
     </row>
     <row r="5">
@@ -1952,7 +1952,7 @@
         <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>84.10389791141228</v>
+        <v>84.10389791141229</v>
       </c>
     </row>
     <row r="6">
@@ -1996,7 +1996,7 @@
         <v>70</v>
       </c>
       <c r="C9" t="n">
-        <v>77.71415804389517</v>
+        <v>77.71415804389518</v>
       </c>
     </row>
     <row r="10">
@@ -2007,7 +2007,7 @@
         <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69570955930803</v>
+        <v>77.69570955930804</v>
       </c>
     </row>
     <row r="11">
@@ -2051,7 +2051,7 @@
         <v>110</v>
       </c>
       <c r="C14" t="n">
-        <v>85.86449486181279</v>
+        <v>85.86449486181277</v>
       </c>
     </row>
     <row r="15">
@@ -2084,7 +2084,7 @@
         <v>90</v>
       </c>
       <c r="C17" t="n">
-        <v>83.5334297472958</v>
+        <v>83.53342974729578</v>
       </c>
     </row>
     <row r="18">
@@ -2095,7 +2095,7 @@
         <v>90</v>
       </c>
       <c r="C18" t="n">
-        <v>83.53752261949603</v>
+        <v>83.53752261949606</v>
       </c>
     </row>
     <row r="19">
@@ -2106,7 +2106,7 @@
         <v>90</v>
       </c>
       <c r="C19" t="n">
-        <v>83.21896062299719</v>
+        <v>83.2189606229972</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +2128,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>40.50903357825488</v>
+        <v>40.50903357825487</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +2150,7 @@
         <v>50</v>
       </c>
       <c r="C23" t="n">
-        <v>59.19251032195404</v>
+        <v>59.19251032195403</v>
       </c>
     </row>
     <row r="24">
@@ -2161,7 +2161,7 @@
         <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>39.14283676219369</v>
+        <v>39.1428367621937</v>
       </c>
     </row>
     <row r="25">
@@ -2172,7 +2172,7 @@
         <v>50</v>
       </c>
       <c r="C25" t="n">
-        <v>58.09640095917622</v>
+        <v>58.09640095917624</v>
       </c>
     </row>
     <row r="26">
@@ -2194,7 +2194,7 @@
         <v>110</v>
       </c>
       <c r="C27" t="n">
-        <v>84.46808909385726</v>
+        <v>84.46808909385727</v>
       </c>
     </row>
     <row r="28">
@@ -2216,7 +2216,7 @@
         <v>110</v>
       </c>
       <c r="C29" t="n">
-        <v>84.36952520178278</v>
+        <v>84.36952520178279</v>
       </c>
     </row>
     <row r="30">
@@ -2238,7 +2238,7 @@
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>83.94897988039341</v>
+        <v>83.94897988039342</v>
       </c>
     </row>
     <row r="32">
@@ -2249,7 +2249,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="n">
-        <v>84.16199967493081</v>
+        <v>84.16199967493083</v>
       </c>
     </row>
     <row r="33">
@@ -2271,7 +2271,7 @@
         <v>90</v>
       </c>
       <c r="C34" t="n">
-        <v>80.66965563443522</v>
+        <v>80.6696556344352</v>
       </c>
     </row>
     <row r="35">
@@ -2293,7 +2293,7 @@
         <v>70</v>
       </c>
       <c r="C36" t="n">
-        <v>71.46701152805296</v>
+        <v>71.46701152805295</v>
       </c>
     </row>
     <row r="37">
@@ -2315,7 +2315,7 @@
         <v>50</v>
       </c>
       <c r="C38" t="n">
-        <v>55.82895092659501</v>
+        <v>55.82895092659504</v>
       </c>
     </row>
     <row r="39">
@@ -2326,7 +2326,7 @@
         <v>110</v>
       </c>
       <c r="C39" t="n">
-        <v>82.08142403989854</v>
+        <v>82.08142403989855</v>
       </c>
     </row>
     <row r="40">
@@ -2337,7 +2337,7 @@
         <v>110</v>
       </c>
       <c r="C40" t="n">
-        <v>82.04752648045647</v>
+        <v>82.04752648045648</v>
       </c>
     </row>
     <row r="41">
@@ -2348,7 +2348,7 @@
         <v>100</v>
       </c>
       <c r="C41" t="n">
-        <v>81.39474708620664</v>
+        <v>81.39474708620665</v>
       </c>
     </row>
     <row r="42">
@@ -2370,7 +2370,7 @@
         <v>90</v>
       </c>
       <c r="C43" t="n">
-        <v>78.74138865155787</v>
+        <v>78.74138865155786</v>
       </c>
     </row>
     <row r="44">
@@ -2381,7 +2381,7 @@
         <v>90</v>
       </c>
       <c r="C44" t="n">
-        <v>78.73314738781856</v>
+        <v>78.73314738781852</v>
       </c>
     </row>
     <row r="45">
@@ -2392,7 +2392,7 @@
         <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>35.97784137708924</v>
+        <v>35.97784137708925</v>
       </c>
     </row>
     <row r="46">
@@ -2436,7 +2436,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="n">
-        <v>53.30495415093972</v>
+        <v>53.30495415093973</v>
       </c>
     </row>
     <row r="50">
@@ -2447,7 +2447,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="n">
-        <v>53.24802396573912</v>
+        <v>53.2480239657391</v>
       </c>
     </row>
     <row r="51">
@@ -2458,7 +2458,7 @@
         <v>110</v>
       </c>
       <c r="C51" t="n">
-        <v>80.18058245827233</v>
+        <v>80.18058245827234</v>
       </c>
     </row>
     <row r="52">
@@ -2480,7 +2480,7 @@
         <v>110</v>
       </c>
       <c r="C53" t="n">
-        <v>80.4831812095473</v>
+        <v>80.48318120954728</v>
       </c>
     </row>
     <row r="54">
@@ -2491,7 +2491,7 @@
         <v>100</v>
       </c>
       <c r="C54" t="n">
-        <v>78.21669381977901</v>
+        <v>78.21669381977905</v>
       </c>
     </row>
     <row r="55">
@@ -2502,7 +2502,7 @@
         <v>100</v>
       </c>
       <c r="C55" t="n">
-        <v>79.130205461584</v>
+        <v>79.13020546158401</v>
       </c>
     </row>
     <row r="56">
@@ -2524,7 +2524,7 @@
         <v>90</v>
       </c>
       <c r="C57" t="n">
-        <v>74.97702479817868</v>
+        <v>74.97702479817869</v>
       </c>
     </row>
     <row r="58">
@@ -2557,7 +2557,7 @@
         <v>30</v>
       </c>
       <c r="C60" t="n">
-        <v>34.17120834657037</v>
+        <v>34.17120834657039</v>
       </c>
     </row>
     <row r="61">
@@ -2568,7 +2568,7 @@
         <v>70</v>
       </c>
       <c r="C61" t="n">
-        <v>65.78815601751637</v>
+        <v>65.78815601751636</v>
       </c>
     </row>
     <row r="62">
@@ -2579,7 +2579,7 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>34.1046151541298</v>
+        <v>34.10461515412981</v>
       </c>
     </row>
     <row r="63">
@@ -2590,7 +2590,7 @@
         <v>70</v>
       </c>
       <c r="C63" t="n">
-        <v>65.69432727432593</v>
+        <v>65.69432727432594</v>
       </c>
     </row>
     <row r="64">
@@ -2612,7 +2612,7 @@
         <v>110</v>
       </c>
       <c r="C65" t="n">
-        <v>79.58927184402705</v>
+        <v>79.58927184402708</v>
       </c>
     </row>
     <row r="66">
@@ -2623,7 +2623,7 @@
         <v>50</v>
       </c>
       <c r="C66" t="n">
-        <v>50.91527557753373</v>
+        <v>50.91527557753371</v>
       </c>
     </row>
     <row r="67">
@@ -2645,7 +2645,7 @@
         <v>50</v>
       </c>
       <c r="C68" t="n">
-        <v>50.66989937892256</v>
+        <v>50.66989937892258</v>
       </c>
     </row>
     <row r="69">
@@ -2656,7 +2656,7 @@
         <v>100</v>
       </c>
       <c r="C69" t="n">
-        <v>75.79828203839129</v>
+        <v>75.79828203839131</v>
       </c>
     </row>
     <row r="70">
@@ -2689,7 +2689,7 @@
         <v>90</v>
       </c>
       <c r="C72" t="n">
-        <v>72.98666563762727</v>
+        <v>72.98666563762724</v>
       </c>
     </row>
     <row r="73">
@@ -2700,7 +2700,7 @@
         <v>90</v>
       </c>
       <c r="C73" t="n">
-        <v>72.93490384262768</v>
+        <v>72.9349038426277</v>
       </c>
     </row>
     <row r="74">
@@ -2733,7 +2733,7 @@
         <v>30</v>
       </c>
       <c r="C76" t="n">
-        <v>32.02547337800175</v>
+        <v>32.02547337800176</v>
       </c>
     </row>
     <row r="77">
@@ -2755,7 +2755,7 @@
         <v>30</v>
       </c>
       <c r="C78" t="n">
-        <v>32.22784086058083</v>
+        <v>32.22784086058086</v>
       </c>
     </row>
     <row r="79">
@@ -2777,7 +2777,7 @@
         <v>50</v>
       </c>
       <c r="C80" t="n">
-        <v>48.33747996471524</v>
+        <v>48.33747996471525</v>
       </c>
     </row>
     <row r="81">
@@ -2788,7 +2788,7 @@
         <v>50</v>
       </c>
       <c r="C81" t="n">
-        <v>48.25987218664558</v>
+        <v>48.25987218664559</v>
       </c>
     </row>
     <row r="82">
@@ -2799,7 +2799,7 @@
         <v>110</v>
       </c>
       <c r="C82" t="n">
-        <v>75.42647972373051</v>
+        <v>75.42647972373054</v>
       </c>
     </row>
     <row r="83">
@@ -2810,7 +2810,7 @@
         <v>110</v>
       </c>
       <c r="C83" t="n">
-        <v>76.00080175862865</v>
+        <v>76.00080175862864</v>
       </c>
     </row>
     <row r="84">
@@ -2843,7 +2843,7 @@
         <v>100</v>
       </c>
       <c r="C86" t="n">
-        <v>72.91544350998512</v>
+        <v>72.91544350998511</v>
       </c>
     </row>
     <row r="87">
@@ -2854,7 +2854,7 @@
         <v>90</v>
       </c>
       <c r="C87" t="n">
-        <v>69.83911551587111</v>
+        <v>69.83911551587113</v>
       </c>
     </row>
     <row r="88">
@@ -2865,7 +2865,7 @@
         <v>90</v>
       </c>
       <c r="C88" t="n">
-        <v>69.7740002811617</v>
+        <v>69.77400028116173</v>
       </c>
     </row>
     <row r="89">
@@ -2876,7 +2876,7 @@
         <v>30</v>
       </c>
       <c r="C89" t="n">
-        <v>30.47378059016826</v>
+        <v>30.47378059016827</v>
       </c>
     </row>
     <row r="90">
@@ -2887,7 +2887,7 @@
         <v>30</v>
       </c>
       <c r="C90" t="n">
-        <v>30.44897009956411</v>
+        <v>30.44897009956412</v>
       </c>
     </row>
     <row r="91">
@@ -2898,7 +2898,7 @@
         <v>70</v>
       </c>
       <c r="C91" t="n">
-        <v>58.67419889348076</v>
+        <v>58.67419889348074</v>
       </c>
     </row>
     <row r="92">
@@ -2920,7 +2920,7 @@
         <v>50</v>
       </c>
       <c r="C93" t="n">
-        <v>44.88179549308946</v>
+        <v>44.88179549308948</v>
       </c>
     </row>
     <row r="94">
@@ -2942,7 +2942,7 @@
         <v>110</v>
       </c>
       <c r="C95" t="n">
-        <v>71.91799025526349</v>
+        <v>71.9179902552635</v>
       </c>
     </row>
     <row r="96">
@@ -2953,7 +2953,7 @@
         <v>50</v>
       </c>
       <c r="C96" t="n">
-        <v>44.88747445090792</v>
+        <v>44.88747445090791</v>
       </c>
     </row>
     <row r="97">
@@ -2964,7 +2964,7 @@
         <v>50</v>
       </c>
       <c r="C97" t="n">
-        <v>44.88685149336632</v>
+        <v>44.88685149336631</v>
       </c>
     </row>
     <row r="98">
@@ -2975,7 +2975,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="n">
-        <v>68.75662438391234</v>
+        <v>68.75662438391235</v>
       </c>
     </row>
     <row r="99">
@@ -2986,7 +2986,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="n">
-        <v>68.86816732128658</v>
+        <v>68.86816732128656</v>
       </c>
     </row>
     <row r="100">
@@ -2997,7 +2997,7 @@
         <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>29.14681352124826</v>
+        <v>29.14681352124827</v>
       </c>
     </row>
     <row r="101">
@@ -3030,7 +3030,7 @@
         <v>30</v>
       </c>
       <c r="C103" t="n">
-        <v>28.81196853338992</v>
+        <v>28.81196853338993</v>
       </c>
     </row>
     <row r="104">
@@ -3107,7 +3107,7 @@
         <v>50</v>
       </c>
       <c r="C110" t="n">
-        <v>42.3963056191545</v>
+        <v>42.39630561915451</v>
       </c>
     </row>
     <row r="111">
@@ -3118,7 +3118,7 @@
         <v>30</v>
       </c>
       <c r="C111" t="n">
-        <v>27.84026769752869</v>
+        <v>27.84026769752868</v>
       </c>
     </row>
     <row r="112">
@@ -3184,7 +3184,7 @@
         <v>90</v>
       </c>
       <c r="C117" t="n">
-        <v>61.60583411459603</v>
+        <v>61.60583411459604</v>
       </c>
     </row>
     <row r="118">
@@ -3206,7 +3206,7 @@
         <v>90</v>
       </c>
       <c r="C119" t="n">
-        <v>61.22077596975796</v>
+        <v>61.22077596975797</v>
       </c>
     </row>
     <row r="120">
@@ -3261,7 +3261,7 @@
         <v>50</v>
       </c>
       <c r="C124" t="n">
-        <v>40.50269326356608</v>
+        <v>40.50269326356607</v>
       </c>
     </row>
     <row r="125">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="C126" t="n">
-        <v>26.73407984646858</v>
+        <v>26.73407984646859</v>
       </c>
     </row>
     <row r="127">

--- a/projects/Kofskey1972_one_stage/Full_Dataset_Kofskey1972_1stage.xlsx
+++ b/projects/Kofskey1972_one_stage/Full_Dataset_Kofskey1972_1stage.xlsx
@@ -461,7 +461,7 @@
         <v>110</v>
       </c>
       <c r="C2" t="n">
-        <v>2.56469316904405</v>
+        <v>2.597636140794157</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>2.587517790423632</v>
+        <v>2.620753939878733</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>2.578396977491738</v>
+        <v>2.611515971925576</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>2.625296362810256</v>
+        <v>2.659017770485682</v>
       </c>
     </row>
     <row r="6">
@@ -505,7 +505,7 @@
         <v>50</v>
       </c>
       <c r="C6" t="n">
-        <v>2.648963878450305</v>
+        <v>2.682989290639229</v>
       </c>
     </row>
     <row r="7">
@@ -516,7 +516,7 @@
         <v>110</v>
       </c>
       <c r="C7" t="n">
-        <v>2.593370290541536</v>
+        <v>2.62668161419228</v>
       </c>
     </row>
     <row r="8">
@@ -527,7 +527,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>2.612884002613113</v>
+        <v>2.646445975999767</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +538,7 @@
         <v>90</v>
       </c>
       <c r="C9" t="n">
-        <v>2.622013851164945</v>
+        <v>2.655693095633597</v>
       </c>
     </row>
     <row r="10">
@@ -549,7 +549,7 @@
         <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>2.661871261540083</v>
+        <v>2.696062466488012</v>
       </c>
     </row>
     <row r="11">
@@ -560,7 +560,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>2.683503826488499</v>
+        <v>2.717972897414541</v>
       </c>
     </row>
     <row r="12">
@@ -571,7 +571,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>2.674794134264062</v>
+        <v>2.709151330932253</v>
       </c>
     </row>
     <row r="13">
@@ -582,7 +582,7 @@
         <v>110</v>
       </c>
       <c r="C13" t="n">
-        <v>2.638694896384126</v>
+        <v>2.672588405548474</v>
       </c>
     </row>
     <row r="14">
@@ -593,7 +593,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>2.646588801207925</v>
+        <v>2.680583706003823</v>
       </c>
     </row>
     <row r="15">
@@ -604,7 +604,7 @@
         <v>90</v>
       </c>
       <c r="C15" t="n">
-        <v>2.660708893574452</v>
+        <v>2.694885168137912</v>
       </c>
     </row>
     <row r="16">
@@ -615,7 +615,7 @@
         <v>70</v>
       </c>
       <c r="C16" t="n">
-        <v>2.681886450518543</v>
+        <v>2.716334746573138</v>
       </c>
     </row>
     <row r="17">
@@ -626,7 +626,7 @@
         <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>2.700599864823666</v>
+        <v>2.735288530949131</v>
       </c>
     </row>
     <row r="18">
@@ -637,7 +637,7 @@
         <v>110</v>
       </c>
       <c r="C18" t="n">
-        <v>2.655373359997617</v>
+        <v>2.68948110069745</v>
       </c>
     </row>
     <row r="19">
@@ -648,7 +648,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>2.66036360381231</v>
+        <v>2.694535443197708</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>90</v>
       </c>
       <c r="C20" t="n">
-        <v>2.676135923825722</v>
+        <v>2.710510355512962</v>
       </c>
     </row>
     <row r="21">
@@ -670,7 +670,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>2.709358607556381</v>
+        <v>2.744159777983683</v>
       </c>
     </row>
     <row r="22">
@@ -681,7 +681,7 @@
         <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>2.700286845132764</v>
+        <v>2.734971490582789</v>
       </c>
     </row>
     <row r="23">
@@ -692,7 +692,7 @@
         <v>110</v>
       </c>
       <c r="C23" t="n">
-        <v>2.671238617816159</v>
+        <v>2.705550144585388</v>
       </c>
     </row>
     <row r="24">
@@ -703,7 +703,7 @@
         <v>110</v>
       </c>
       <c r="C24" t="n">
-        <v>2.660451378406059</v>
+        <v>2.694624345238591</v>
       </c>
     </row>
     <row r="25">
@@ -714,7 +714,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>2.667523041814959</v>
+        <v>2.701786842752216</v>
       </c>
     </row>
     <row r="26">
@@ -725,7 +725,7 @@
         <v>90</v>
       </c>
       <c r="C26" t="n">
-        <v>2.687036753886535</v>
+        <v>2.721551204559703</v>
       </c>
     </row>
     <row r="27">
@@ -736,7 +736,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>2.709468325798551</v>
+        <v>2.74427090553477</v>
       </c>
     </row>
     <row r="28">
@@ -747,7 +747,7 @@
         <v>70</v>
       </c>
       <c r="C28" t="n">
-        <v>2.695780006985049</v>
+        <v>2.730406762998796</v>
       </c>
     </row>
     <row r="29">
@@ -758,7 +758,7 @@
         <v>110</v>
       </c>
       <c r="C29" t="n">
-        <v>2.661371720837472</v>
+        <v>2.695556509284802</v>
       </c>
     </row>
     <row r="30">
@@ -769,7 +769,7 @@
         <v>50</v>
       </c>
       <c r="C30" t="n">
-        <v>2.697080490855546</v>
+        <v>2.731723951324985</v>
       </c>
     </row>
     <row r="31">
@@ -780,7 +780,7 @@
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>2.67841096384729</v>
+        <v>2.712814617969427</v>
       </c>
     </row>
     <row r="32">
@@ -791,7 +791,7 @@
         <v>90</v>
       </c>
       <c r="C32" t="n">
-        <v>2.690043679123562</v>
+        <v>2.724596753151109</v>
       </c>
     </row>
     <row r="33">
@@ -802,7 +802,7 @@
         <v>70</v>
       </c>
       <c r="C33" t="n">
-        <v>2.694231043566113</v>
+        <v>2.728837903453973</v>
       </c>
     </row>
     <row r="34">
@@ -813,7 +813,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>2.71376540848327</v>
+        <v>2.74862318338872</v>
       </c>
     </row>
     <row r="35">
@@ -824,7 +824,7 @@
         <v>50</v>
       </c>
       <c r="C35" t="n">
-        <v>2.705917972562044</v>
+        <v>2.74067494871972</v>
       </c>
     </row>
     <row r="36">
@@ -835,7 +835,7 @@
         <v>110</v>
       </c>
       <c r="C36" t="n">
-        <v>2.658642318213012</v>
+        <v>2.692792048028519</v>
       </c>
     </row>
     <row r="37">
@@ -846,7 +846,7 @@
         <v>100</v>
       </c>
       <c r="C37" t="n">
-        <v>2.673191602526872</v>
+        <v>2.707528214994823</v>
       </c>
     </row>
     <row r="38">
@@ -857,7 +857,7 @@
         <v>90</v>
       </c>
       <c r="C38" t="n">
-        <v>2.679836655594142</v>
+        <v>2.714258622442148</v>
       </c>
     </row>
     <row r="39">
@@ -868,7 +868,7 @@
         <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>2.713915141613778</v>
+        <v>2.748774839811397</v>
       </c>
     </row>
     <row r="40">
@@ -879,7 +879,7 @@
         <v>70</v>
       </c>
       <c r="C40" t="n">
-        <v>2.702737434341816</v>
+        <v>2.737453557121005</v>
       </c>
     </row>
     <row r="41">
@@ -890,7 +890,7 @@
         <v>110</v>
       </c>
       <c r="C41" t="n">
-        <v>2.663824891652229</v>
+        <v>2.698041190588932</v>
       </c>
     </row>
     <row r="42">
@@ -901,7 +901,7 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>2.703254400882886</v>
+        <v>2.737977163994089</v>
       </c>
     </row>
     <row r="43">
@@ -912,7 +912,7 @@
         <v>100</v>
       </c>
       <c r="C43" t="n">
-        <v>2.682533142745958</v>
+        <v>2.71698974543311</v>
       </c>
     </row>
     <row r="44">
@@ -923,7 +923,7 @@
         <v>30</v>
       </c>
       <c r="C44" t="n">
-        <v>2.719898012819447</v>
+        <v>2.754834559803303</v>
       </c>
     </row>
     <row r="45">
@@ -934,7 +934,7 @@
         <v>90</v>
       </c>
       <c r="C45" t="n">
-        <v>2.682154292109739</v>
+        <v>2.716606028536102</v>
       </c>
     </row>
     <row r="46">
@@ -945,7 +945,7 @@
         <v>70</v>
       </c>
       <c r="C46" t="n">
-        <v>2.695502484372495</v>
+        <v>2.730125675663687</v>
       </c>
     </row>
     <row r="47">
@@ -956,7 +956,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="n">
-        <v>2.712147387111908</v>
+        <v>2.746984378855859</v>
       </c>
     </row>
     <row r="48">
@@ -967,7 +967,7 @@
         <v>110</v>
       </c>
       <c r="C48" t="n">
-        <v>2.670690672006704</v>
+        <v>2.7049951605214</v>
       </c>
     </row>
     <row r="49">
@@ -978,7 +978,7 @@
         <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>2.663670640711759</v>
+        <v>2.697884958325926</v>
       </c>
     </row>
     <row r="50">
@@ -989,7 +989,7 @@
         <v>90</v>
       </c>
       <c r="C50" t="n">
-        <v>2.688187504626524</v>
+        <v>2.722716736463216</v>
       </c>
     </row>
     <row r="51">
@@ -1000,7 +1000,7 @@
         <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>2.676996889326081</v>
+        <v>2.711382379943293</v>
       </c>
     </row>
     <row r="52">
@@ -1011,7 +1011,7 @@
         <v>70</v>
       </c>
       <c r="C52" t="n">
-        <v>2.700699256643059</v>
+        <v>2.735389199436601</v>
       </c>
     </row>
     <row r="53">
@@ -1022,7 +1022,7 @@
         <v>50</v>
       </c>
       <c r="C53" t="n">
-        <v>2.711103773008384</v>
+        <v>2.745927359737518</v>
       </c>
     </row>
     <row r="54">
@@ -1033,7 +1033,7 @@
         <v>30</v>
       </c>
       <c r="C54" t="n">
-        <v>2.709880737308846</v>
+        <v>2.744688614388582</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +1919,7 @@
         <v>110</v>
       </c>
       <c r="C2" t="n">
-        <v>85.81281313698842</v>
+        <v>84.72454329250408</v>
       </c>
     </row>
     <row r="3">
@@ -1930,7 +1930,7 @@
         <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>84.93731344545652</v>
+        <v>83.86014660387255</v>
       </c>
     </row>
     <row r="4">
@@ -1941,7 +1941,7 @@
         <v>110</v>
       </c>
       <c r="C4" t="n">
-        <v>85.31187486156723</v>
+        <v>84.22995786812179</v>
       </c>
     </row>
     <row r="5">
@@ -1952,7 +1952,7 @@
         <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>84.10389791141229</v>
+        <v>83.03730036549021</v>
       </c>
     </row>
     <row r="6">
@@ -1963,7 +1963,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>85.78945628209438</v>
+        <v>84.70148264699779</v>
       </c>
     </row>
     <row r="7">
@@ -1974,7 +1974,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>85.49784762638163</v>
+        <v>84.41357214421585</v>
       </c>
     </row>
     <row r="8">
@@ -1985,7 +1985,7 @@
         <v>70</v>
       </c>
       <c r="C8" t="n">
-        <v>77.73069012423295</v>
+        <v>76.74491698662328</v>
       </c>
     </row>
     <row r="9">
@@ -1996,7 +1996,7 @@
         <v>70</v>
       </c>
       <c r="C9" t="n">
-        <v>77.71415804389518</v>
+        <v>76.72859456453864</v>
       </c>
     </row>
     <row r="10">
@@ -2007,7 +2007,7 @@
         <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69570955930804</v>
+        <v>76.71038004185905</v>
       </c>
     </row>
     <row r="11">
@@ -2018,7 +2018,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="n">
-        <v>63.11988263271762</v>
+        <v>62.31940235074711</v>
       </c>
     </row>
     <row r="12">
@@ -2029,7 +2029,7 @@
         <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>62.18193565178921</v>
+        <v>61.3933503232383</v>
       </c>
     </row>
     <row r="13">
@@ -2040,7 +2040,7 @@
         <v>110</v>
       </c>
       <c r="C13" t="n">
-        <v>85.84234582086421</v>
+        <v>84.75370144572277</v>
       </c>
     </row>
     <row r="14">
@@ -2051,7 +2051,7 @@
         <v>110</v>
       </c>
       <c r="C14" t="n">
-        <v>85.86449486181277</v>
+        <v>84.77556959466388</v>
       </c>
     </row>
     <row r="15">
@@ -2062,7 +2062,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>85.44188413954539</v>
+        <v>84.35831838093826</v>
       </c>
     </row>
     <row r="16">
@@ -2073,7 +2073,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>85.34676775473116</v>
+        <v>84.26440825296989</v>
       </c>
     </row>
     <row r="17">
@@ -2084,7 +2084,7 @@
         <v>90</v>
       </c>
       <c r="C17" t="n">
-        <v>83.53342974729578</v>
+        <v>82.4740668237751</v>
       </c>
     </row>
     <row r="18">
@@ -2095,7 +2095,7 @@
         <v>90</v>
       </c>
       <c r="C18" t="n">
-        <v>83.53752261949606</v>
+        <v>82.4781077905637</v>
       </c>
     </row>
     <row r="19">
@@ -2106,7 +2106,7 @@
         <v>90</v>
       </c>
       <c r="C19" t="n">
-        <v>83.2189606229972</v>
+        <v>82.16358576667166</v>
       </c>
     </row>
     <row r="20">
@@ -2117,7 +2117,7 @@
         <v>70</v>
       </c>
       <c r="C20" t="n">
-        <v>75.07784591854339</v>
+        <v>74.12571589605405</v>
       </c>
     </row>
     <row r="21">
@@ -2128,7 +2128,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>40.50903357825487</v>
+        <v>39.99530190974468</v>
       </c>
     </row>
     <row r="22">
@@ -2139,7 +2139,7 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>75.05155642617986</v>
+        <v>74.09975980450469</v>
       </c>
     </row>
     <row r="23">
@@ -2150,7 +2150,7 @@
         <v>50</v>
       </c>
       <c r="C23" t="n">
-        <v>59.19251032195403</v>
+        <v>58.44183659797439</v>
       </c>
     </row>
     <row r="24">
@@ -2161,7 +2161,7 @@
         <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>39.1428367621937</v>
+        <v>38.64643107033195</v>
       </c>
     </row>
     <row r="25">
@@ -2172,7 +2172,7 @@
         <v>50</v>
       </c>
       <c r="C25" t="n">
-        <v>58.09640095917624</v>
+        <v>57.359627988734</v>
       </c>
     </row>
     <row r="26">
@@ -2183,7 +2183,7 @@
         <v>110</v>
       </c>
       <c r="C26" t="n">
-        <v>83.53110189275847</v>
+        <v>82.47176849086516</v>
       </c>
     </row>
     <row r="27">
@@ -2194,7 +2194,7 @@
         <v>110</v>
       </c>
       <c r="C27" t="n">
-        <v>84.46808909385727</v>
+        <v>83.39687291037987</v>
       </c>
     </row>
     <row r="28">
@@ -2205,7 +2205,7 @@
         <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>38.95258103439902</v>
+        <v>38.45858814738226</v>
       </c>
     </row>
     <row r="29">
@@ -2216,7 +2216,7 @@
         <v>110</v>
       </c>
       <c r="C29" t="n">
-        <v>84.36952520178279</v>
+        <v>83.29955899610682</v>
       </c>
     </row>
     <row r="30">
@@ -2227,7 +2227,7 @@
         <v>100</v>
       </c>
       <c r="C30" t="n">
-        <v>82.68350507902767</v>
+        <v>81.63492081842161</v>
       </c>
     </row>
     <row r="31">
@@ -2238,7 +2238,7 @@
         <v>100</v>
       </c>
       <c r="C31" t="n">
-        <v>83.94897988039342</v>
+        <v>82.88434699004388</v>
       </c>
     </row>
     <row r="32">
@@ -2249,7 +2249,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="n">
-        <v>84.16199967493083</v>
+        <v>83.09466528803084</v>
       </c>
     </row>
     <row r="33">
@@ -2260,7 +2260,7 @@
         <v>90</v>
       </c>
       <c r="C33" t="n">
-        <v>80.81469841685714</v>
+        <v>79.7898141826372</v>
       </c>
     </row>
     <row r="34">
@@ -2271,7 +2271,7 @@
         <v>90</v>
       </c>
       <c r="C34" t="n">
-        <v>80.6696556344352</v>
+        <v>79.64661081883469</v>
       </c>
     </row>
     <row r="35">
@@ -2282,7 +2282,7 @@
         <v>70</v>
       </c>
       <c r="C35" t="n">
-        <v>71.56271937023484</v>
+        <v>70.65516784461828</v>
       </c>
     </row>
     <row r="36">
@@ -2293,7 +2293,7 @@
         <v>70</v>
       </c>
       <c r="C36" t="n">
-        <v>71.46701152805295</v>
+        <v>70.56067376008771</v>
       </c>
     </row>
     <row r="37">
@@ -2304,7 +2304,7 @@
         <v>50</v>
       </c>
       <c r="C37" t="n">
-        <v>55.97936352132849</v>
+        <v>55.26943861609974</v>
       </c>
     </row>
     <row r="38">
@@ -2315,7 +2315,7 @@
         <v>50</v>
       </c>
       <c r="C38" t="n">
-        <v>55.82895092659504</v>
+        <v>55.12093353942907</v>
       </c>
     </row>
     <row r="39">
@@ -2326,7 +2326,7 @@
         <v>110</v>
       </c>
       <c r="C39" t="n">
-        <v>82.08142403989855</v>
+        <v>81.04047531313492</v>
       </c>
     </row>
     <row r="40">
@@ -2337,7 +2337,7 @@
         <v>110</v>
       </c>
       <c r="C40" t="n">
-        <v>82.04752648045648</v>
+        <v>81.00700763928211</v>
       </c>
     </row>
     <row r="41">
@@ -2348,7 +2348,7 @@
         <v>100</v>
       </c>
       <c r="C41" t="n">
-        <v>81.39474708620665</v>
+        <v>80.3625067305392</v>
       </c>
     </row>
     <row r="42">
@@ -2359,7 +2359,7 @@
         <v>100</v>
       </c>
       <c r="C42" t="n">
-        <v>81.36075096529409</v>
+        <v>80.32894174516299</v>
       </c>
     </row>
     <row r="43">
@@ -2370,7 +2370,7 @@
         <v>90</v>
       </c>
       <c r="C43" t="n">
-        <v>78.74138865155786</v>
+        <v>77.74279793241294</v>
       </c>
     </row>
     <row r="44">
@@ -2381,7 +2381,7 @@
         <v>90</v>
       </c>
       <c r="C44" t="n">
-        <v>78.73314738781852</v>
+        <v>77.73466118358789</v>
       </c>
     </row>
     <row r="45">
@@ -2392,7 +2392,7 @@
         <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>35.97784137708925</v>
+        <v>35.52157385235697</v>
       </c>
     </row>
     <row r="46">
@@ -2403,7 +2403,7 @@
         <v>70</v>
       </c>
       <c r="C46" t="n">
-        <v>68.67882662644027</v>
+        <v>67.80784835128676</v>
       </c>
     </row>
     <row r="47">
@@ -2414,7 +2414,7 @@
         <v>30</v>
       </c>
       <c r="C47" t="n">
-        <v>35.91755120014069</v>
+        <v>35.46204826963499</v>
       </c>
     </row>
     <row r="48">
@@ -2425,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="C48" t="n">
-        <v>36.18239845943337</v>
+        <v>35.7235367614529</v>
       </c>
     </row>
     <row r="49">
@@ -2436,7 +2436,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="n">
-        <v>53.30495415093973</v>
+        <v>52.62894584817632</v>
       </c>
     </row>
     <row r="50">
@@ -2447,7 +2447,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="n">
-        <v>53.2480239657391</v>
+        <v>52.57273764611003</v>
       </c>
     </row>
     <row r="51">
@@ -2458,7 +2458,7 @@
         <v>110</v>
       </c>
       <c r="C51" t="n">
-        <v>80.18058245827234</v>
+        <v>79.16374002166286</v>
       </c>
     </row>
     <row r="52">
@@ -2469,7 +2469,7 @@
         <v>110</v>
       </c>
       <c r="C52" t="n">
-        <v>80.43820497547254</v>
+        <v>79.41809539487278</v>
       </c>
     </row>
     <row r="53">
@@ -2480,7 +2480,7 @@
         <v>110</v>
       </c>
       <c r="C53" t="n">
-        <v>80.48318120954728</v>
+        <v>79.46250124467187</v>
       </c>
     </row>
     <row r="54">
@@ -2491,7 +2491,7 @@
         <v>100</v>
       </c>
       <c r="C54" t="n">
-        <v>78.21669381977905</v>
+        <v>77.22475723003636</v>
       </c>
     </row>
     <row r="55">
@@ -2502,7 +2502,7 @@
         <v>100</v>
       </c>
       <c r="C55" t="n">
-        <v>79.13020546158401</v>
+        <v>78.12668380504279</v>
       </c>
     </row>
     <row r="56">
@@ -2513,7 +2513,7 @@
         <v>100</v>
       </c>
       <c r="C56" t="n">
-        <v>78.91456305604207</v>
+        <v>77.91377615575183</v>
       </c>
     </row>
     <row r="57">
@@ -2524,7 +2524,7 @@
         <v>90</v>
       </c>
       <c r="C57" t="n">
-        <v>74.97702479817869</v>
+        <v>74.02617337944292</v>
       </c>
     </row>
     <row r="58">
@@ -2535,7 +2535,7 @@
         <v>90</v>
       </c>
       <c r="C58" t="n">
-        <v>75.78503391887594</v>
+        <v>74.82393540616924</v>
       </c>
     </row>
     <row r="59">
@@ -2546,7 +2546,7 @@
         <v>90</v>
       </c>
       <c r="C59" t="n">
-        <v>75.65847194386699</v>
+        <v>74.69897847795721</v>
       </c>
     </row>
     <row r="60">
@@ -2557,7 +2557,7 @@
         <v>30</v>
       </c>
       <c r="C60" t="n">
-        <v>34.17120834657039</v>
+        <v>33.73785236820617</v>
       </c>
     </row>
     <row r="61">
@@ -2568,7 +2568,7 @@
         <v>70</v>
       </c>
       <c r="C61" t="n">
-        <v>65.78815601751636</v>
+        <v>64.95383694905972</v>
       </c>
     </row>
     <row r="62">
@@ -2579,7 +2579,7 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>34.10461515412981</v>
+        <v>33.67210370422856</v>
       </c>
     </row>
     <row r="63">
@@ -2590,7 +2590,7 @@
         <v>70</v>
       </c>
       <c r="C63" t="n">
-        <v>65.69432727432594</v>
+        <v>64.86119813296791</v>
       </c>
     </row>
     <row r="64">
@@ -2601,7 +2601,7 @@
         <v>110</v>
       </c>
       <c r="C64" t="n">
-        <v>79.59069865198005</v>
+        <v>78.58133706507901</v>
       </c>
     </row>
     <row r="65">
@@ -2612,7 +2612,7 @@
         <v>110</v>
       </c>
       <c r="C65" t="n">
-        <v>79.58927184402708</v>
+        <v>78.57992835176731</v>
       </c>
     </row>
     <row r="66">
@@ -2623,7 +2623,7 @@
         <v>50</v>
       </c>
       <c r="C66" t="n">
-        <v>50.91527557753371</v>
+        <v>50.26957294864789</v>
       </c>
     </row>
     <row r="67">
@@ -2634,7 +2634,7 @@
         <v>50</v>
       </c>
       <c r="C67" t="n">
-        <v>50.71969560353023</v>
+        <v>50.07647330106784</v>
       </c>
     </row>
     <row r="68">
@@ -2645,7 +2645,7 @@
         <v>50</v>
       </c>
       <c r="C68" t="n">
-        <v>50.66989937892258</v>
+        <v>50.02730858739227</v>
       </c>
     </row>
     <row r="69">
@@ -2656,7 +2656,7 @@
         <v>100</v>
       </c>
       <c r="C69" t="n">
-        <v>75.79828203839131</v>
+        <v>74.83701551430686</v>
       </c>
     </row>
     <row r="70">
@@ -2667,7 +2667,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="n">
-        <v>75.84299687809786</v>
+        <v>74.88116328471601</v>
       </c>
     </row>
     <row r="71">
@@ -2678,7 +2678,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="n">
-        <v>76.08943122280573</v>
+        <v>75.12447237276129</v>
       </c>
     </row>
     <row r="72">
@@ -2689,7 +2689,7 @@
         <v>90</v>
       </c>
       <c r="C72" t="n">
-        <v>72.98666563762724</v>
+        <v>72.0610557623736</v>
       </c>
     </row>
     <row r="73">
@@ -2700,7 +2700,7 @@
         <v>90</v>
       </c>
       <c r="C73" t="n">
-        <v>72.9349038426277</v>
+        <v>72.00995040548084</v>
       </c>
     </row>
     <row r="74">
@@ -2711,7 +2711,7 @@
         <v>70</v>
       </c>
       <c r="C74" t="n">
-        <v>63.06797311249534</v>
+        <v>62.26815114206872</v>
       </c>
     </row>
     <row r="75">
@@ -2722,7 +2722,7 @@
         <v>70</v>
       </c>
       <c r="C75" t="n">
-        <v>63.04905293292124</v>
+        <v>62.2494709063926</v>
       </c>
     </row>
     <row r="76">
@@ -2733,7 +2733,7 @@
         <v>30</v>
       </c>
       <c r="C76" t="n">
-        <v>32.02547337800176</v>
+        <v>31.61932940417608</v>
       </c>
     </row>
     <row r="77">
@@ -2744,7 +2744,7 @@
         <v>30</v>
       </c>
       <c r="C77" t="n">
-        <v>31.96618408042141</v>
+        <v>31.56079200776642</v>
       </c>
     </row>
     <row r="78">
@@ -2755,7 +2755,7 @@
         <v>30</v>
       </c>
       <c r="C78" t="n">
-        <v>32.22784086058086</v>
+        <v>31.81913048180067</v>
       </c>
     </row>
     <row r="79">
@@ -2766,7 +2766,7 @@
         <v>50</v>
       </c>
       <c r="C79" t="n">
-        <v>48.52414450775494</v>
+        <v>47.90876597316604</v>
       </c>
     </row>
     <row r="80">
@@ -2777,7 +2777,7 @@
         <v>50</v>
       </c>
       <c r="C80" t="n">
-        <v>48.33747996471525</v>
+        <v>47.7244686919116</v>
       </c>
     </row>
     <row r="81">
@@ -2788,7 +2788,7 @@
         <v>50</v>
       </c>
       <c r="C81" t="n">
-        <v>48.25987218664559</v>
+        <v>47.6478451282207</v>
       </c>
     </row>
     <row r="82">
@@ -2799,7 +2799,7 @@
         <v>110</v>
       </c>
       <c r="C82" t="n">
-        <v>75.42647972373054</v>
+        <v>74.46992836084829</v>
       </c>
     </row>
     <row r="83">
@@ -2810,7 +2810,7 @@
         <v>110</v>
       </c>
       <c r="C83" t="n">
-        <v>76.00080175862864</v>
+        <v>75.03696689892632</v>
       </c>
     </row>
     <row r="84">
@@ -2821,7 +2821,7 @@
         <v>110</v>
       </c>
       <c r="C84" t="n">
-        <v>76.10094351097041</v>
+        <v>75.13583866319449</v>
       </c>
     </row>
     <row r="85">
@@ -2832,7 +2832,7 @@
         <v>100</v>
       </c>
       <c r="C85" t="n">
-        <v>72.92383674605779</v>
+        <v>71.99902366076543</v>
       </c>
     </row>
     <row r="86">
@@ -2843,7 +2843,7 @@
         <v>100</v>
       </c>
       <c r="C86" t="n">
-        <v>72.91544350998511</v>
+        <v>71.99073686690554</v>
       </c>
     </row>
     <row r="87">
@@ -2854,7 +2854,7 @@
         <v>90</v>
       </c>
       <c r="C87" t="n">
-        <v>69.83911551587113</v>
+        <v>68.95342256859468</v>
       </c>
     </row>
     <row r="88">
@@ -2865,7 +2865,7 @@
         <v>90</v>
       </c>
       <c r="C88" t="n">
-        <v>69.77400028116173</v>
+        <v>68.88913311903042</v>
       </c>
     </row>
     <row r="89">
@@ -2876,7 +2876,7 @@
         <v>30</v>
       </c>
       <c r="C89" t="n">
-        <v>30.47378059016827</v>
+        <v>30.08731503506787</v>
       </c>
     </row>
     <row r="90">
@@ -2887,7 +2887,7 @@
         <v>30</v>
       </c>
       <c r="C90" t="n">
-        <v>30.44897009956412</v>
+        <v>30.0628191887198</v>
       </c>
     </row>
     <row r="91">
@@ -2898,7 +2898,7 @@
         <v>70</v>
       </c>
       <c r="C91" t="n">
-        <v>58.67419889348074</v>
+        <v>57.93009834519643</v>
       </c>
     </row>
     <row r="92">
@@ -2909,7 +2909,7 @@
         <v>70</v>
       </c>
       <c r="C92" t="n">
-        <v>58.65223692422838</v>
+        <v>57.90841489552627</v>
       </c>
     </row>
     <row r="93">
@@ -2920,7 +2920,7 @@
         <v>50</v>
       </c>
       <c r="C93" t="n">
-        <v>44.88179549308948</v>
+        <v>44.31260887845803</v>
       </c>
     </row>
     <row r="94">
@@ -2931,7 +2931,7 @@
         <v>110</v>
       </c>
       <c r="C94" t="n">
-        <v>71.91839396436384</v>
+        <v>71.00633180774601</v>
       </c>
     </row>
     <row r="95">
@@ -2942,7 +2942,7 @@
         <v>110</v>
       </c>
       <c r="C95" t="n">
-        <v>71.9179902552635</v>
+        <v>71.00593321844566</v>
       </c>
     </row>
     <row r="96">
@@ -2953,7 +2953,7 @@
         <v>50</v>
       </c>
       <c r="C96" t="n">
-        <v>44.88747445090791</v>
+        <v>44.31821581627949</v>
       </c>
     </row>
     <row r="97">
@@ -2964,7 +2964,7 @@
         <v>50</v>
       </c>
       <c r="C97" t="n">
-        <v>44.88685149336631</v>
+        <v>44.31760075902553</v>
       </c>
     </row>
     <row r="98">
@@ -2975,7 +2975,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="n">
-        <v>68.75662438391235</v>
+        <v>67.8846594850796</v>
       </c>
     </row>
     <row r="99">
@@ -2986,7 +2986,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="n">
-        <v>68.86816732128656</v>
+        <v>67.99478784564793</v>
       </c>
     </row>
     <row r="100">
@@ -2997,7 +2997,7 @@
         <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>29.14681352124827</v>
+        <v>28.7771764349154</v>
       </c>
     </row>
     <row r="101">
@@ -3008,7 +3008,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>68.91346154615263</v>
+        <v>68.03950765350973</v>
       </c>
     </row>
     <row r="102">
@@ -3019,7 +3019,7 @@
         <v>30</v>
       </c>
       <c r="C102" t="n">
-        <v>28.83869979757651</v>
+        <v>28.47297017985917</v>
       </c>
     </row>
     <row r="103">
@@ -3030,7 +3030,7 @@
         <v>30</v>
       </c>
       <c r="C103" t="n">
-        <v>28.81196853338993</v>
+        <v>28.44657791899454</v>
       </c>
     </row>
     <row r="104">
@@ -3041,7 +3041,7 @@
         <v>90</v>
       </c>
       <c r="C104" t="n">
-        <v>64.8197835294213</v>
+        <v>63.99774526774045</v>
       </c>
     </row>
     <row r="105">
@@ -3052,7 +3052,7 @@
         <v>90</v>
       </c>
       <c r="C105" t="n">
-        <v>65.1586272401737</v>
+        <v>64.33229179513614</v>
       </c>
     </row>
     <row r="106">
@@ -3063,7 +3063,7 @@
         <v>90</v>
       </c>
       <c r="C106" t="n">
-        <v>65.38521023457727</v>
+        <v>64.5560012857928</v>
       </c>
     </row>
     <row r="107">
@@ -3074,7 +3074,7 @@
         <v>70</v>
       </c>
       <c r="C107" t="n">
-        <v>55.13045479427693</v>
+        <v>54.43129566789398</v>
       </c>
     </row>
     <row r="108">
@@ -3085,7 +3085,7 @@
         <v>70</v>
       </c>
       <c r="C108" t="n">
-        <v>55.11702720382247</v>
+        <v>54.41803836485047</v>
       </c>
     </row>
     <row r="109">
@@ -3096,7 +3096,7 @@
         <v>50</v>
       </c>
       <c r="C109" t="n">
-        <v>42.48443121024395</v>
+        <v>41.94564773891815</v>
       </c>
     </row>
     <row r="110">
@@ -3107,7 +3107,7 @@
         <v>50</v>
       </c>
       <c r="C110" t="n">
-        <v>42.39630561915451</v>
+        <v>41.8586397481008</v>
       </c>
     </row>
     <row r="111">
@@ -3118,7 +3118,7 @@
         <v>30</v>
       </c>
       <c r="C111" t="n">
-        <v>27.84026769752868</v>
+        <v>27.4872000996954</v>
       </c>
     </row>
     <row r="112">
@@ -3129,7 +3129,7 @@
         <v>30</v>
       </c>
       <c r="C112" t="n">
-        <v>27.96866441375687</v>
+        <v>27.61396850111495</v>
       </c>
     </row>
     <row r="113">
@@ -3140,7 +3140,7 @@
         <v>110</v>
       </c>
       <c r="C113" t="n">
-        <v>67.82132168515848</v>
+        <v>66.96121820521303</v>
       </c>
     </row>
     <row r="114">
@@ -3151,7 +3151,7 @@
         <v>110</v>
       </c>
       <c r="C114" t="n">
-        <v>67.81716197942667</v>
+        <v>66.95711125246932</v>
       </c>
     </row>
     <row r="115">
@@ -3162,7 +3162,7 @@
         <v>100</v>
       </c>
       <c r="C115" t="n">
-        <v>65.63997983218765</v>
+        <v>64.80753991986478</v>
       </c>
     </row>
     <row r="116">
@@ -3173,7 +3173,7 @@
         <v>100</v>
       </c>
       <c r="C116" t="n">
-        <v>65.59799465297594</v>
+        <v>64.76608719265857</v>
       </c>
     </row>
     <row r="117">
@@ -3184,7 +3184,7 @@
         <v>90</v>
       </c>
       <c r="C117" t="n">
-        <v>61.60583411459604</v>
+        <v>60.82455485034216</v>
       </c>
     </row>
     <row r="118">
@@ -3195,7 +3195,7 @@
         <v>90</v>
       </c>
       <c r="C118" t="n">
-        <v>61.43010609339373</v>
+        <v>60.65105539500683</v>
       </c>
     </row>
     <row r="119">
@@ -3206,7 +3206,7 @@
         <v>90</v>
       </c>
       <c r="C119" t="n">
-        <v>61.22077596975797</v>
+        <v>60.44437997586992</v>
       </c>
     </row>
     <row r="120">
@@ -3217,7 +3217,7 @@
         <v>100</v>
       </c>
       <c r="C120" t="n">
-        <v>64.3549872714641</v>
+        <v>63.53884351123209</v>
       </c>
     </row>
     <row r="121">
@@ -3228,7 +3228,7 @@
         <v>70</v>
       </c>
       <c r="C121" t="n">
-        <v>52.3157720722014</v>
+        <v>51.65230848144127</v>
       </c>
     </row>
     <row r="122">
@@ -3239,7 +3239,7 @@
         <v>70</v>
       </c>
       <c r="C122" t="n">
-        <v>52.25608801219192</v>
+        <v>51.59338132894165</v>
       </c>
     </row>
     <row r="123">
@@ -3250,7 +3250,7 @@
         <v>70</v>
       </c>
       <c r="C123" t="n">
-        <v>52.24365950844253</v>
+        <v>51.58111044228168</v>
       </c>
     </row>
     <row r="124">
@@ -3261,7 +3261,7 @@
         <v>50</v>
       </c>
       <c r="C124" t="n">
-        <v>40.50269326356607</v>
+        <v>39.98904200231708</v>
       </c>
     </row>
     <row r="125">
@@ -3272,7 +3272,7 @@
         <v>50</v>
       </c>
       <c r="C125" t="n">
-        <v>40.45158827910871</v>
+        <v>39.93858512635836</v>
       </c>
     </row>
     <row r="126">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="C126" t="n">
-        <v>26.73407984646859</v>
+        <v>26.39504081659197</v>
       </c>
     </row>
     <row r="127">
@@ -3294,7 +3294,7 @@
         <v>30</v>
       </c>
       <c r="C127" t="n">
-        <v>26.70158042321573</v>
+        <v>26.36295354789966</v>
       </c>
     </row>
   </sheetData>
